--- a/result/Q4_result.xlsx
+++ b/result/Q4_result.xlsx
@@ -591,168 +591,168 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
         <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -761,136 +761,136 @@
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>7</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS3" t="n">
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -898,174 +898,174 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
       </c>
       <c r="AP4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV4" t="n">
         <v>2</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1074,58 +1074,58 @@
         <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="n">
         <v>7</v>
@@ -1134,108 +1134,108 @@
         <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
         <v>4</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
         <v>4</v>
@@ -1244,106 +1244,106 @@
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
         <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG6" t="n">
         <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1351,386 +1351,386 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
         <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>4</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R9" t="n">
         <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="n">
         <v>1</v>
@@ -1739,174 +1739,174 @@
         <v>4</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
         <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AM9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW9" t="n">
         <v>1</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>6</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
         <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>4</v>
@@ -1915,430 +1915,430 @@
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AM10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>8</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP11" t="n">
         <v>4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AV11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>6</v>
       </c>
       <c r="Q12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
         <v>6</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>2</v>
@@ -2347,260 +2347,260 @@
         <v>2</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN13" t="n">
         <v>8</v>
       </c>
       <c r="AO13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>2</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
@@ -2609,261 +2609,261 @@
         <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC15" t="n">
         <v>5</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>7</v>
       </c>
       <c r="AU15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB16" t="n">
         <v>4</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX16" t="n">
         <v>3</v>
@@ -2871,151 +2871,151 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>5</v>
@@ -3023,52 +3023,52 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>6</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
         <v>4</v>
@@ -3080,31 +3080,31 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC18" t="n">
         <v>2</v>
@@ -3113,126 +3113,126 @@
         <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG18" t="n">
         <v>8</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AL18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AM18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW18" t="n">
         <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
         <v>8</v>
@@ -3241,544 +3241,544 @@
         <v>8</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>2</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG19" t="n">
         <v>6</v>
       </c>
       <c r="AH19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AK20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>6</v>
       </c>
       <c r="AF21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
         <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AO21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP21" t="n">
         <v>8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AT21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
         <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
         <v>7</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA22" t="n">
         <v>3</v>
       </c>
       <c r="AB22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN22" t="n">
         <v>8</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP22" t="n">
         <v>5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3786,133 +3786,133 @@
         <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>5</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG23" t="n">
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AM23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS23" t="n">
         <v>7</v>
@@ -3924,272 +3924,272 @@
         <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>2</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA24" t="n">
         <v>7</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
         <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>2</v>
       </c>
       <c r="AP24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ25" t="n">
         <v>3</v>
@@ -4198,19 +4198,19 @@
         <v>5</v>
       </c>
       <c r="AL25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
@@ -4219,22 +4219,22 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4413,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -4440,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -4455,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -4488,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -4506,19 +4506,19 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -4527,16 +4527,16 @@
         <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -4545,42 +4545,42 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
         <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -4589,16 +4589,16 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -4619,28 +4619,28 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -4670,25 +4670,25 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
         <v>1</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -4714,16 +4714,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4762,37 +4762,37 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -4810,16 +4810,16 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -4914,25 +4914,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -4950,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -4977,16 +4977,16 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -4998,22 +4998,22 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
         <v>1</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5024,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5042,28 +5042,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -5078,22 +5078,22 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>1</v>
@@ -5102,37 +5102,37 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -5141,13 +5141,13 @@
         <v>1</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
         <v>1</v>
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5200,28 +5200,28 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -5230,19 +5230,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -5251,28 +5251,28 @@
         <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>1</v>
@@ -5281,34 +5281,34 @@
         <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -5317,12 +5317,12 @@
         <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -5331,22 +5331,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -5361,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -5370,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -5403,28 +5403,28 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -5454,87 +5454,87 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -5549,13 +5549,13 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -5564,22 +5564,22 @@
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -5597,16 +5597,16 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -5615,30 +5615,30 @@
         <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5647,13 +5647,13 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -5686,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -5701,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -5713,25 +5713,25 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -5740,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="AM10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -5770,18 +5770,18 @@
         <v>1</v>
       </c>
       <c r="AW10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -5790,13 +5790,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -5811,25 +5811,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -5838,10 +5838,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>1</v>
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -5901,13 +5901,13 @@
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -5916,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
         <v>1</v>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5933,31 +5933,31 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -5966,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -5993,10 +5993,10 @@
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -6008,13 +6008,13 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -6032,13 +6032,13 @@
         <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
         <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
@@ -6056,13 +6056,13 @@
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -6071,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6085,22 +6085,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -6109,10 +6109,10 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -6121,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -6142,25 +6142,25 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -6172,13 +6172,13 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -6187,19 +6187,19 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="n">
         <v>1</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
         <v>1</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" t="n">
         <v>1</v>
@@ -6208,28 +6208,28 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6252,64 +6252,64 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6327,13 +6327,13 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -6342,22 +6342,22 @@
         <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="n">
         <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -6366,54 +6366,54 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -6422,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>1</v>
@@ -6455,16 +6455,16 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -6476,10 +6476,10 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>1</v>
@@ -6488,13 +6488,13 @@
         <v>1</v>
       </c>
       <c r="AI15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
         <v>1</v>
@@ -6512,25 +6512,25 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
       </c>
       <c r="AU15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15" t="n">
         <v>0</v>
@@ -6538,19 +6538,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6559,13 +6559,13 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -6580,13 +6580,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>1</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -6607,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -6661,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
@@ -6670,30 +6670,30 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -6705,10 +6705,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -6720,34 +6720,34 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>1</v>
@@ -6756,25 +6756,25 @@
         <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6786,19 +6786,19 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -6807,37 +6807,37 @@
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
         <v>1</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -6857,73 +6857,73 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6932,28 +6932,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>1</v>
       </c>
       <c r="AL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6971,19 +6971,19 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18" t="n">
         <v>1</v>
@@ -6997,37 +6997,37 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -7039,16 +7039,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7057,13 +7057,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -7093,43 +7093,43 @@
         <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
         <v>1</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -7141,12 +7141,12 @@
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -7158,10 +7158,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -7200,19 +7200,19 @@
         <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -7224,19 +7224,19 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -7254,46 +7254,46 @@
         <v>1</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" t="n">
         <v>1</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="n">
         <v>1</v>
       </c>
       <c r="AX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7301,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -7316,19 +7316,19 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -7343,22 +7343,22 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7382,10 +7382,10 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -7397,16 +7397,16 @@
         <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
@@ -7421,13 +7421,13 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
         <v>0</v>
@@ -7436,10 +7436,10 @@
         <v>1</v>
       </c>
       <c r="AU21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
@@ -7450,28 +7450,28 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -7495,13 +7495,13 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -7525,19 +7525,19 @@
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -7549,22 +7549,22 @@
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
@@ -7582,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
         <v>1</v>
@@ -7597,27 +7597,27 @@
         <v>1</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -7626,31 +7626,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>1</v>
@@ -7662,16 +7662,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>1</v>
@@ -7686,37 +7686,37 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
         <v>1</v>
       </c>
       <c r="AI23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
         <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
         <v>1</v>
@@ -7728,10 +7728,10 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -7743,13 +7743,13 @@
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7757,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7778,19 +7778,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -7805,58 +7805,58 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
         <v>0</v>
@@ -7865,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" t="n">
         <v>1</v>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
@@ -7889,36 +7889,36 @@
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -7954,10 +7954,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -7966,25 +7966,25 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -7993,25 +7993,25 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -8020,13 +8020,13 @@
         <v>1</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
         <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
         <v>1</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25" t="n">
         <v>0</v>
@@ -8226,122 +8226,122 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.546851927301233</v>
+        <v>3.099078787136938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.899549020724089</v>
+        <v>4.778280208595542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.910470462608618</v>
+        <v>3.232456327089849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.64864826186343</v>
+        <v>4.439130347421512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.509786923646467</v>
+        <v>4.803559348436933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.503332758660115</v>
+        <v>3.600711987325258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.817421590079562</v>
+        <v>4.393677943305015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.173652035623572</v>
+        <v>4.527453269035053</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.030861328397267</v>
+        <v>3.573736240718901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.841797812686921</v>
+        <v>5.162201682719724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.627724550260328</v>
+        <v>3.445492414945637</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.970198709320752</v>
+        <v>5.551142687580473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.051546075009519</v>
+        <v>4.352682807381236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.618374080399981</v>
+        <v>2.901108665263735</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.059430299787859</v>
+        <v>3.171851398000132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.367399557225739</v>
+        <v>3.032957516113214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.285963750803329</v>
+        <v>2.865490099045129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.550848847519393</v>
+        <v>5.086267806164106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.388230010108803</v>
+        <v>4.811601953617457</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.749388524656163</v>
+        <v>2.859995731799034</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.743341853928005</v>
+        <v>4.445996124231655</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.017528976842652</v>
+        <v>5.1773685108506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.179391443768792</v>
+        <v>3.873658276728972</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.461357971222451</v>
+        <v>5.526812234716296</v>
       </c>
     </row>
   </sheetData>
@@ -8375,122 +8375,122 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>46008.12638035686</v>
+        <v>25615.31845341008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28739.34608977607</v>
+        <v>-21864.90694869416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10395.6384310573</v>
+        <v>-54005.73806510856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-18245.21877847548</v>
+        <v>-98154.45749035588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-31508.91376961642</v>
+        <v>-145938.0700186023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-73785.46868003576</v>
+        <v>-181687.1372275233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-104713.9317421917</v>
+        <v>-225440.007421372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-130358.6000749174</v>
+        <v>-270466.8687735224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-160229.3604397453</v>
+        <v>-305942.0830708614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-178896.3261289557</v>
+        <v>-357266.9657472932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-203304.952318507</v>
+        <v>-391550.6909921181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-227601.986989337</v>
+        <v>-446828.0136279016</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-257519.5436488084</v>
+        <v>-490060.6693219825</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-290185.0703165049</v>
+        <v>-518721.2414780388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-310695.3719183325</v>
+        <v>-550246.2348906476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-327209.0107502816</v>
+        <v>-580405.6082507682</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-364297.3186824977</v>
+        <v>-608798.8416457844</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-373093.2991237335</v>
+        <v>-659284.1596790097</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-399435.0758913094</v>
+        <v>-707114.097555874</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-424610.2937813129</v>
+        <v>-735618.9369118614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-448598.9832515912</v>
+        <v>-779762.5561293697</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-464346.9261147674</v>
+        <v>-831237.1890595764</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-508987.7582546619</v>
+        <v>-869768.8705122223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-244532.6959588341</v>
+        <v>-924722.1118075879</v>
       </c>
     </row>
   </sheetData>
